--- a/Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373370B-19BB-43F7-9B8E-D85CF34B4214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WMMVY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,153 +689,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7788000</v>
+        <v>7642600</v>
       </c>
       <c r="E8" s="3">
-        <v>7702400</v>
+        <v>7585600</v>
       </c>
       <c r="F8" s="3">
-        <v>8930600</v>
+        <v>7502200</v>
       </c>
       <c r="G8" s="3">
-        <v>7263600</v>
+        <v>8698500</v>
       </c>
       <c r="H8" s="3">
-        <v>7207600</v>
+        <v>7080300</v>
       </c>
       <c r="I8" s="3">
-        <v>7039800</v>
+        <v>7020300</v>
       </c>
       <c r="J8" s="3">
+        <v>6856800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8363100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6008800</v>
+        <v>5862700</v>
       </c>
       <c r="E9" s="3">
-        <v>5938700</v>
+        <v>5852700</v>
       </c>
       <c r="F9" s="3">
-        <v>6967300</v>
+        <v>5784400</v>
       </c>
       <c r="G9" s="3">
-        <v>5620400</v>
+        <v>6786200</v>
       </c>
       <c r="H9" s="3">
-        <v>5565000</v>
+        <v>5437300</v>
       </c>
       <c r="I9" s="3">
-        <v>5426400</v>
+        <v>5420400</v>
       </c>
       <c r="J9" s="3">
+        <v>5285300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6525500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1779200</v>
+        <v>1779800</v>
       </c>
       <c r="E10" s="3">
-        <v>1763600</v>
+        <v>1732900</v>
       </c>
       <c r="F10" s="3">
-        <v>1963300</v>
+        <v>1717800</v>
       </c>
       <c r="G10" s="3">
-        <v>1643200</v>
+        <v>1912300</v>
       </c>
       <c r="H10" s="3">
-        <v>1642600</v>
+        <v>1643000</v>
       </c>
       <c r="I10" s="3">
-        <v>1613400</v>
+        <v>1599900</v>
       </c>
       <c r="J10" s="3">
+        <v>1571500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1837600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +860,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +890,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +922,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +954,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +986,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +999,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7234300</v>
+        <v>7031700</v>
       </c>
       <c r="E17" s="3">
-        <v>7100500</v>
+        <v>7046300</v>
       </c>
       <c r="F17" s="3">
-        <v>8197100</v>
+        <v>6916000</v>
       </c>
       <c r="G17" s="3">
-        <v>6707700</v>
+        <v>7984100</v>
       </c>
       <c r="H17" s="3">
-        <v>6694800</v>
+        <v>6538800</v>
       </c>
       <c r="I17" s="3">
-        <v>6514300</v>
+        <v>6520800</v>
       </c>
       <c r="J17" s="3">
+        <v>6345000</v>
+      </c>
+      <c r="K17" s="3">
         <v>7691500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>553700</v>
+        <v>610900</v>
       </c>
       <c r="E18" s="3">
-        <v>601800</v>
+        <v>539300</v>
       </c>
       <c r="F18" s="3">
-        <v>733500</v>
+        <v>586200</v>
       </c>
       <c r="G18" s="3">
-        <v>556000</v>
+        <v>714500</v>
       </c>
       <c r="H18" s="3">
-        <v>512800</v>
+        <v>541500</v>
       </c>
       <c r="I18" s="3">
-        <v>525500</v>
+        <v>499500</v>
       </c>
       <c r="J18" s="3">
+        <v>511900</v>
+      </c>
+      <c r="K18" s="3">
         <v>671600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1077,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10600</v>
+        <v>-18900</v>
       </c>
       <c r="E20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-5400</v>
+        <v>-6300</v>
       </c>
       <c r="H20" s="3">
-        <v>-7200</v>
+        <v>-5300</v>
       </c>
       <c r="I20" s="3">
-        <v>-10000</v>
+        <v>-7000</v>
       </c>
       <c r="J20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>727600</v>
+        <v>751900</v>
       </c>
       <c r="E21" s="3">
-        <v>761400</v>
+        <v>708700</v>
       </c>
       <c r="F21" s="3">
-        <v>890100</v>
+        <v>741600</v>
       </c>
       <c r="G21" s="3">
-        <v>703800</v>
+        <v>866900</v>
       </c>
       <c r="H21" s="3">
-        <v>654700</v>
+        <v>685500</v>
       </c>
       <c r="I21" s="3">
-        <v>668500</v>
+        <v>637700</v>
       </c>
       <c r="J21" s="3">
+        <v>651100</v>
+      </c>
+      <c r="K21" s="3">
         <v>828900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,71 +1166,80 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>20700</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>564300</v>
+        <v>591900</v>
       </c>
       <c r="E23" s="3">
-        <v>599800</v>
+        <v>549600</v>
       </c>
       <c r="F23" s="3">
-        <v>727100</v>
+        <v>584200</v>
       </c>
       <c r="G23" s="3">
-        <v>550500</v>
+        <v>708200</v>
       </c>
       <c r="H23" s="3">
-        <v>505600</v>
+        <v>536200</v>
       </c>
       <c r="I23" s="3">
-        <v>515500</v>
+        <v>492400</v>
       </c>
       <c r="J23" s="3">
+        <v>502100</v>
+      </c>
+      <c r="K23" s="3">
         <v>657900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>141600</v>
+        <v>142900</v>
       </c>
       <c r="E24" s="3">
-        <v>156500</v>
+        <v>137900</v>
       </c>
       <c r="F24" s="3">
-        <v>165300</v>
+        <v>152400</v>
       </c>
       <c r="G24" s="3">
-        <v>125600</v>
+        <v>161000</v>
       </c>
       <c r="H24" s="3">
-        <v>147300</v>
+        <v>122300</v>
       </c>
       <c r="I24" s="3">
-        <v>140500</v>
+        <v>143500</v>
       </c>
       <c r="J24" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K24" s="3">
         <v>158600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1267,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>422700</v>
+        <v>449000</v>
       </c>
       <c r="E26" s="3">
-        <v>443300</v>
+        <v>411700</v>
       </c>
       <c r="F26" s="3">
-        <v>561800</v>
+        <v>431800</v>
       </c>
       <c r="G26" s="3">
-        <v>425000</v>
+        <v>547200</v>
       </c>
       <c r="H26" s="3">
-        <v>358200</v>
+        <v>413900</v>
       </c>
       <c r="I26" s="3">
-        <v>375000</v>
+        <v>348900</v>
       </c>
       <c r="J26" s="3">
+        <v>365200</v>
+      </c>
+      <c r="K26" s="3">
         <v>499400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>422700</v>
+        <v>449000</v>
       </c>
       <c r="E27" s="3">
-        <v>443300</v>
+        <v>411700</v>
       </c>
       <c r="F27" s="3">
-        <v>561800</v>
+        <v>431800</v>
       </c>
       <c r="G27" s="3">
-        <v>425000</v>
+        <v>547200</v>
       </c>
       <c r="H27" s="3">
-        <v>358200</v>
+        <v>413900</v>
       </c>
       <c r="I27" s="3">
-        <v>375000</v>
+        <v>348900</v>
       </c>
       <c r="J27" s="3">
+        <v>365200</v>
+      </c>
+      <c r="K27" s="3">
         <v>499600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1363,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,22 +1381,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>35800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>357500</v>
+        <v>34800</v>
       </c>
       <c r="I29" s="3">
+        <v>348200</v>
+      </c>
+      <c r="J29" s="3">
         <v>3600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>52700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1427,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1459,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10600</v>
+        <v>18900</v>
       </c>
       <c r="E32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
-        <v>6400</v>
-      </c>
       <c r="G32" s="3">
-        <v>5400</v>
+        <v>6300</v>
       </c>
       <c r="H32" s="3">
-        <v>7200</v>
+        <v>5300</v>
       </c>
       <c r="I32" s="3">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="J32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>422700</v>
+        <v>449000</v>
       </c>
       <c r="E33" s="3">
-        <v>443300</v>
+        <v>411700</v>
       </c>
       <c r="F33" s="3">
-        <v>561800</v>
+        <v>431800</v>
       </c>
       <c r="G33" s="3">
-        <v>460700</v>
+        <v>547200</v>
       </c>
       <c r="H33" s="3">
-        <v>715700</v>
+        <v>448800</v>
       </c>
       <c r="I33" s="3">
-        <v>378600</v>
+        <v>697100</v>
       </c>
       <c r="J33" s="3">
+        <v>368800</v>
+      </c>
+      <c r="K33" s="3">
         <v>552200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1555,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>422700</v>
+        <v>449000</v>
       </c>
       <c r="E35" s="3">
-        <v>443300</v>
+        <v>411700</v>
       </c>
       <c r="F35" s="3">
-        <v>561800</v>
+        <v>431800</v>
       </c>
       <c r="G35" s="3">
-        <v>460700</v>
+        <v>547200</v>
       </c>
       <c r="H35" s="3">
-        <v>715700</v>
+        <v>448800</v>
       </c>
       <c r="I35" s="3">
-        <v>378600</v>
+        <v>697100</v>
       </c>
       <c r="J35" s="3">
+        <v>368800</v>
+      </c>
+      <c r="K35" s="3">
         <v>552200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1640,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,48 +1654,52 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1606600</v>
+        <v>1709900</v>
       </c>
       <c r="E41" s="3">
-        <v>1802100</v>
+        <v>1564900</v>
       </c>
       <c r="F41" s="3">
-        <v>1890200</v>
+        <v>1755300</v>
       </c>
       <c r="G41" s="3">
-        <v>1404200</v>
+        <v>1841000</v>
       </c>
       <c r="H41" s="3">
-        <v>848300</v>
+        <v>1367700</v>
       </c>
       <c r="I41" s="3">
-        <v>943900</v>
+        <v>826200</v>
       </c>
       <c r="J41" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1485500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9500</v>
+        <v>8700</v>
       </c>
       <c r="E42" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>9200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1591,211 +1716,235 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>457900</v>
+        <v>481200</v>
       </c>
       <c r="E43" s="3">
-        <v>386600</v>
+        <v>446000</v>
       </c>
       <c r="F43" s="3">
-        <v>575300</v>
+        <v>376500</v>
       </c>
       <c r="G43" s="3">
-        <v>404200</v>
+        <v>560400</v>
       </c>
       <c r="H43" s="3">
-        <v>370700</v>
+        <v>393700</v>
       </c>
       <c r="I43" s="3">
-        <v>371400</v>
+        <v>361100</v>
       </c>
       <c r="J43" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K43" s="3">
         <v>715300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3054900</v>
+        <v>3139500</v>
       </c>
       <c r="E44" s="3">
-        <v>2891300</v>
+        <v>2975500</v>
       </c>
       <c r="F44" s="3">
-        <v>3157500</v>
+        <v>2816100</v>
       </c>
       <c r="G44" s="3">
-        <v>3055800</v>
+        <v>3075400</v>
       </c>
       <c r="H44" s="3">
-        <v>2747000</v>
+        <v>2976400</v>
       </c>
       <c r="I44" s="3">
-        <v>2846400</v>
+        <v>2675600</v>
       </c>
       <c r="J44" s="3">
+        <v>2772500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2849600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66300</v>
+        <v>57200</v>
       </c>
       <c r="E45" s="3">
-        <v>48000</v>
+        <v>64600</v>
       </c>
       <c r="F45" s="3">
-        <v>52200</v>
+        <v>46800</v>
       </c>
       <c r="G45" s="3">
-        <v>40700</v>
+        <v>50800</v>
       </c>
       <c r="H45" s="3">
-        <v>44800</v>
+        <v>39600</v>
       </c>
       <c r="I45" s="3">
-        <v>666300</v>
+        <v>43600</v>
       </c>
       <c r="J45" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K45" s="3">
         <v>667100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5195200</v>
+        <v>5396500</v>
       </c>
       <c r="E46" s="3">
-        <v>5136700</v>
+        <v>5060100</v>
       </c>
       <c r="F46" s="3">
-        <v>5675100</v>
+        <v>5003200</v>
       </c>
       <c r="G46" s="3">
-        <v>4904900</v>
+        <v>5527600</v>
       </c>
       <c r="H46" s="3">
-        <v>4010800</v>
+        <v>4777400</v>
       </c>
       <c r="I46" s="3">
-        <v>4828100</v>
+        <v>3906500</v>
       </c>
       <c r="J46" s="3">
+        <v>4702600</v>
+      </c>
+      <c r="K46" s="3">
         <v>5523600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>108100</v>
+        <v>108300</v>
       </c>
       <c r="E47" s="3">
-        <v>98000</v>
+        <v>105300</v>
       </c>
       <c r="F47" s="3">
-        <v>108700</v>
+        <v>95500</v>
       </c>
       <c r="G47" s="3">
-        <v>81300</v>
+        <v>105900</v>
       </c>
       <c r="H47" s="3">
-        <v>75500</v>
+        <v>79200</v>
       </c>
       <c r="I47" s="3">
-        <v>82100</v>
+        <v>73500</v>
       </c>
       <c r="J47" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K47" s="3">
         <v>99800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7458800</v>
+        <v>7235100</v>
       </c>
       <c r="E48" s="3">
-        <v>7277400</v>
+        <v>7264900</v>
       </c>
       <c r="F48" s="3">
-        <v>7438300</v>
+        <v>7088200</v>
       </c>
       <c r="G48" s="3">
-        <v>7144700</v>
+        <v>7245000</v>
       </c>
       <c r="H48" s="3">
-        <v>7058400</v>
+        <v>6959000</v>
       </c>
       <c r="I48" s="3">
-        <v>7016200</v>
+        <v>6874900</v>
       </c>
       <c r="J48" s="3">
+        <v>6833900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7240200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2113400</v>
+        <v>1938200</v>
       </c>
       <c r="E49" s="3">
-        <v>1935900</v>
+        <v>2058500</v>
       </c>
       <c r="F49" s="3">
-        <v>2090400</v>
+        <v>1885600</v>
       </c>
       <c r="G49" s="3">
-        <v>1937000</v>
+        <v>2036100</v>
       </c>
       <c r="H49" s="3">
-        <v>1913700</v>
+        <v>1886700</v>
       </c>
       <c r="I49" s="3">
-        <v>1984800</v>
+        <v>1864000</v>
       </c>
       <c r="J49" s="3">
+        <v>1933200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2195100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1972,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2004,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>351700</v>
+        <v>430400</v>
       </c>
       <c r="E52" s="3">
-        <v>381600</v>
+        <v>342600</v>
       </c>
       <c r="F52" s="3">
-        <v>365500</v>
+        <v>371700</v>
       </c>
       <c r="G52" s="3">
-        <v>299400</v>
+        <v>356000</v>
       </c>
       <c r="H52" s="3">
-        <v>272600</v>
+        <v>291600</v>
       </c>
       <c r="I52" s="3">
-        <v>232900</v>
+        <v>265500</v>
       </c>
       <c r="J52" s="3">
+        <v>226800</v>
+      </c>
+      <c r="K52" s="3">
         <v>249600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2068,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15227100</v>
+        <v>15108500</v>
       </c>
       <c r="E54" s="3">
-        <v>14829600</v>
+        <v>14831400</v>
       </c>
       <c r="F54" s="3">
-        <v>15678100</v>
+        <v>14444200</v>
       </c>
       <c r="G54" s="3">
-        <v>14367300</v>
+        <v>15270600</v>
       </c>
       <c r="H54" s="3">
-        <v>13330900</v>
+        <v>13993900</v>
       </c>
       <c r="I54" s="3">
-        <v>14144100</v>
+        <v>12984500</v>
       </c>
       <c r="J54" s="3">
+        <v>13776500</v>
+      </c>
+      <c r="K54" s="3">
         <v>15308300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2116,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2130,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3687300</v>
+        <v>3762400</v>
       </c>
       <c r="E57" s="3">
-        <v>3651100</v>
+        <v>3591400</v>
       </c>
       <c r="F57" s="3">
-        <v>4253300</v>
+        <v>3556200</v>
       </c>
       <c r="G57" s="3">
-        <v>3398700</v>
+        <v>4142700</v>
       </c>
       <c r="H57" s="3">
-        <v>2820600</v>
+        <v>3310400</v>
       </c>
       <c r="I57" s="3">
-        <v>2938300</v>
+        <v>2747300</v>
       </c>
       <c r="J57" s="3">
+        <v>2862000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3500300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="E58" s="3">
-        <v>16600</v>
+        <v>15200</v>
       </c>
       <c r="F58" s="3">
-        <v>20200</v>
+        <v>16200</v>
       </c>
       <c r="G58" s="3">
-        <v>21500</v>
+        <v>19700</v>
       </c>
       <c r="H58" s="3">
-        <v>23700</v>
+        <v>21000</v>
       </c>
       <c r="I58" s="3">
-        <v>26900</v>
+        <v>23100</v>
       </c>
       <c r="J58" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K58" s="3">
         <v>28300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2117100</v>
+        <v>1902400</v>
       </c>
       <c r="E59" s="3">
-        <v>2542700</v>
+        <v>2062100</v>
       </c>
       <c r="F59" s="3">
-        <v>1452100</v>
+        <v>2476600</v>
       </c>
       <c r="G59" s="3">
-        <v>1713000</v>
+        <v>1414400</v>
       </c>
       <c r="H59" s="3">
-        <v>1755400</v>
+        <v>1668500</v>
       </c>
       <c r="I59" s="3">
-        <v>3282600</v>
+        <v>1709800</v>
       </c>
       <c r="J59" s="3">
+        <v>3197300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1479700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5820000</v>
+        <v>5680100</v>
       </c>
       <c r="E60" s="3">
-        <v>6210400</v>
+        <v>5668800</v>
       </c>
       <c r="F60" s="3">
-        <v>5725600</v>
+        <v>6049000</v>
       </c>
       <c r="G60" s="3">
-        <v>5133200</v>
+        <v>5576800</v>
       </c>
       <c r="H60" s="3">
-        <v>4599700</v>
+        <v>4999800</v>
       </c>
       <c r="I60" s="3">
-        <v>6247900</v>
+        <v>4480200</v>
       </c>
       <c r="J60" s="3">
+        <v>6085500</v>
+      </c>
+      <c r="K60" s="3">
         <v>5008300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>765300</v>
+        <v>735600</v>
       </c>
       <c r="E61" s="3">
-        <v>744500</v>
+        <v>745400</v>
       </c>
       <c r="F61" s="3">
-        <v>728900</v>
+        <v>725200</v>
       </c>
       <c r="G61" s="3">
-        <v>713400</v>
+        <v>709900</v>
       </c>
       <c r="H61" s="3">
-        <v>698200</v>
+        <v>694900</v>
       </c>
       <c r="I61" s="3">
-        <v>689500</v>
+        <v>680000</v>
       </c>
       <c r="J61" s="3">
+        <v>671600</v>
+      </c>
+      <c r="K61" s="3">
         <v>694400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>733600</v>
+        <v>793100</v>
       </c>
       <c r="E62" s="3">
-        <v>755000</v>
+        <v>714500</v>
       </c>
       <c r="F62" s="3">
-        <v>752300</v>
+        <v>735400</v>
       </c>
       <c r="G62" s="3">
-        <v>876200</v>
+        <v>732800</v>
       </c>
       <c r="H62" s="3">
-        <v>909700</v>
+        <v>853400</v>
       </c>
       <c r="I62" s="3">
-        <v>686500</v>
+        <v>886100</v>
       </c>
       <c r="J62" s="3">
+        <v>668600</v>
+      </c>
+      <c r="K62" s="3">
         <v>736500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2352,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2384,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2416,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7318800</v>
+        <v>7208800</v>
       </c>
       <c r="E66" s="3">
-        <v>7709900</v>
+        <v>7128600</v>
       </c>
       <c r="F66" s="3">
-        <v>7206800</v>
+        <v>7509500</v>
       </c>
       <c r="G66" s="3">
-        <v>6722900</v>
+        <v>7019500</v>
       </c>
       <c r="H66" s="3">
-        <v>6207600</v>
+        <v>6548100</v>
       </c>
       <c r="I66" s="3">
-        <v>7623900</v>
+        <v>6046300</v>
       </c>
       <c r="J66" s="3">
+        <v>7425700</v>
+      </c>
+      <c r="K66" s="3">
         <v>6439200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2464,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2494,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2526,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2558,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2590,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4471400</v>
+        <v>4803700</v>
       </c>
       <c r="E72" s="3">
-        <v>4050300</v>
+        <v>4355200</v>
       </c>
       <c r="F72" s="3">
-        <v>5119600</v>
+        <v>3945000</v>
       </c>
       <c r="G72" s="3">
-        <v>4558100</v>
+        <v>4986500</v>
       </c>
       <c r="H72" s="3">
-        <v>4097900</v>
+        <v>4439600</v>
       </c>
       <c r="I72" s="3">
-        <v>3383300</v>
+        <v>3991400</v>
       </c>
       <c r="J72" s="3">
+        <v>3295400</v>
+      </c>
+      <c r="K72" s="3">
         <v>5291400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2654,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2686,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2718,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7908300</v>
+        <v>7899700</v>
       </c>
       <c r="E76" s="3">
-        <v>7119700</v>
+        <v>7702700</v>
       </c>
       <c r="F76" s="3">
-        <v>8471300</v>
+        <v>6934700</v>
       </c>
       <c r="G76" s="3">
-        <v>7644400</v>
+        <v>8251100</v>
       </c>
       <c r="H76" s="3">
-        <v>7123300</v>
+        <v>7445700</v>
       </c>
       <c r="I76" s="3">
-        <v>6520200</v>
+        <v>6938200</v>
       </c>
       <c r="J76" s="3">
+        <v>6350800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8869100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2782,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>422700</v>
+        <v>449000</v>
       </c>
       <c r="E81" s="3">
-        <v>443300</v>
+        <v>411700</v>
       </c>
       <c r="F81" s="3">
-        <v>561800</v>
+        <v>431800</v>
       </c>
       <c r="G81" s="3">
-        <v>460700</v>
+        <v>547200</v>
       </c>
       <c r="H81" s="3">
-        <v>715700</v>
+        <v>448800</v>
       </c>
       <c r="I81" s="3">
-        <v>378600</v>
+        <v>697100</v>
       </c>
       <c r="J81" s="3">
+        <v>368800</v>
+      </c>
+      <c r="K81" s="3">
         <v>552200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2867,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>163300</v>
+        <v>159900</v>
       </c>
       <c r="E83" s="3">
-        <v>161600</v>
+        <v>159100</v>
       </c>
       <c r="F83" s="3">
-        <v>163000</v>
+        <v>157400</v>
       </c>
       <c r="G83" s="3">
-        <v>153200</v>
+        <v>158700</v>
       </c>
       <c r="H83" s="3">
-        <v>149200</v>
+        <v>149300</v>
       </c>
       <c r="I83" s="3">
-        <v>153000</v>
+        <v>145300</v>
       </c>
       <c r="J83" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K83" s="3">
         <v>150200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2929,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2961,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2993,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3025,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3057,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>284300</v>
+        <v>717400</v>
       </c>
       <c r="E89" s="3">
-        <v>203600</v>
+        <v>276900</v>
       </c>
       <c r="F89" s="3">
-        <v>1250600</v>
+        <v>198300</v>
       </c>
       <c r="G89" s="3">
-        <v>919700</v>
+        <v>1218100</v>
       </c>
       <c r="H89" s="3">
-        <v>604600</v>
+        <v>895800</v>
       </c>
       <c r="I89" s="3">
-        <v>-168500</v>
+        <v>588900</v>
       </c>
       <c r="J89" s="3">
+        <v>-164100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1324000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3105,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-195500</v>
+        <v>-270700</v>
       </c>
       <c r="E91" s="3">
-        <v>-98200</v>
+        <v>-190500</v>
       </c>
       <c r="F91" s="3">
-        <v>-357800</v>
+        <v>-95600</v>
       </c>
       <c r="G91" s="3">
-        <v>94300</v>
+        <v>-348500</v>
       </c>
       <c r="H91" s="3">
-        <v>-533800</v>
+        <v>-230500</v>
       </c>
       <c r="I91" s="3">
-        <v>-128000</v>
+        <v>-197600</v>
       </c>
       <c r="J91" s="3">
+        <v>-124700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3167,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3199,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139100</v>
+        <v>-236900</v>
       </c>
       <c r="E94" s="3">
-        <v>-88300</v>
+        <v>-135400</v>
       </c>
       <c r="F94" s="3">
-        <v>-287300</v>
+        <v>-86000</v>
       </c>
       <c r="G94" s="3">
-        <v>-211700</v>
+        <v>-314300</v>
       </c>
       <c r="H94" s="3">
-        <v>890100</v>
+        <v>-171700</v>
       </c>
       <c r="I94" s="3">
-        <v>-182800</v>
+        <v>866900</v>
       </c>
       <c r="J94" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-247400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3247,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-357600</v>
+        <v>-259300</v>
       </c>
       <c r="E96" s="3">
-        <v>-146700</v>
+        <v>-348300</v>
       </c>
       <c r="F96" s="3">
-        <v>-485800</v>
+        <v>-142900</v>
       </c>
       <c r="G96" s="3">
-        <v>-146600</v>
+        <v>-473200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1509800</v>
+        <v>-142700</v>
       </c>
       <c r="I96" s="3">
-        <v>-128100</v>
+        <v>-1470600</v>
       </c>
       <c r="J96" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-568100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3309,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3341,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3373,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-378100</v>
+        <v>-279000</v>
       </c>
       <c r="E100" s="3">
-        <v>-168400</v>
+        <v>-368200</v>
       </c>
       <c r="F100" s="3">
-        <v>-507700</v>
+        <v>-164000</v>
       </c>
       <c r="G100" s="3">
-        <v>-171500</v>
+        <v>-494500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1527300</v>
+        <v>-167100</v>
       </c>
       <c r="I100" s="3">
-        <v>-149300</v>
+        <v>-1487600</v>
       </c>
       <c r="J100" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-591300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37300</v>
+        <v>-56400</v>
       </c>
       <c r="E101" s="3">
-        <v>-35000</v>
+        <v>36300</v>
       </c>
       <c r="F101" s="3">
-        <v>30400</v>
+        <v>-34100</v>
       </c>
       <c r="G101" s="3">
-        <v>-16000</v>
+        <v>29600</v>
       </c>
       <c r="H101" s="3">
-        <v>-27600</v>
+        <v>-15600</v>
       </c>
       <c r="I101" s="3">
-        <v>-41000</v>
+        <v>-26900</v>
       </c>
       <c r="J101" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K101" s="3">
         <v>29200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-195500</v>
+        <v>145100</v>
       </c>
       <c r="E102" s="3">
-        <v>-88000</v>
+        <v>-190400</v>
       </c>
       <c r="F102" s="3">
-        <v>486000</v>
+        <v>-85700</v>
       </c>
       <c r="G102" s="3">
-        <v>555900</v>
+        <v>473300</v>
       </c>
       <c r="H102" s="3">
-        <v>-95600</v>
+        <v>541400</v>
       </c>
       <c r="I102" s="3">
-        <v>-541600</v>
+        <v>-93200</v>
       </c>
       <c r="J102" s="3">
+        <v>-527500</v>
+      </c>
+      <c r="K102" s="3">
         <v>503000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39200</v>
       </c>
     </row>

--- a/Financials/Quarterly/WMMVY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/WMMVY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373370B-19BB-43F7-9B8E-D85CF34B4214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="WMMVY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>WMMVY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,166 +654,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7642600</v>
+        <v>8310600</v>
       </c>
       <c r="E8" s="3">
-        <v>7585600</v>
+        <v>16409200</v>
       </c>
       <c r="F8" s="3">
-        <v>7502200</v>
+        <v>8134400</v>
       </c>
       <c r="G8" s="3">
+        <v>9511600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7921800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7862800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7776400</v>
+      </c>
+      <c r="K8" s="3">
         <v>8698500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>7080300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>7020300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>6856800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>8363100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>6736400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5862700</v>
+        <v>6352300</v>
       </c>
       <c r="E9" s="3">
-        <v>5852700</v>
+        <v>12688300</v>
       </c>
       <c r="F9" s="3">
-        <v>5784400</v>
+        <v>6285100</v>
       </c>
       <c r="G9" s="3">
+        <v>7342800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6073400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6076200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5992600</v>
+      </c>
+      <c r="K9" s="3">
         <v>6786200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>5437300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>5420400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>5285300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>6525500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>5222300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1779800</v>
+        <v>1958200</v>
       </c>
       <c r="E10" s="3">
-        <v>1732900</v>
+        <v>3720900</v>
       </c>
       <c r="F10" s="3">
-        <v>1717800</v>
+        <v>1849400</v>
       </c>
       <c r="G10" s="3">
+        <v>2168800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1848400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1786600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1783700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1912300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1643000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1599900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1571500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1837600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>1514100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +877,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +913,20 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +957,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,8 +1001,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1045,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,72 +1068,100 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7031700</v>
+        <v>7593100</v>
       </c>
       <c r="E17" s="3">
-        <v>7046300</v>
+        <v>15100000</v>
       </c>
       <c r="F17" s="3">
-        <v>6916000</v>
+        <v>7472900</v>
       </c>
       <c r="G17" s="3">
+        <v>8674300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7288600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7303800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7168700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7984100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>6538800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>6520800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>6345000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>7691500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>6251400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>610900</v>
+        <v>717500</v>
       </c>
       <c r="E18" s="3">
-        <v>539300</v>
+        <v>1309100</v>
       </c>
       <c r="F18" s="3">
-        <v>586200</v>
+        <v>661500</v>
       </c>
       <c r="G18" s="3">
+        <v>837300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>633200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>559000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>607600</v>
+      </c>
+      <c r="K18" s="3">
         <v>714500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>541500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>499500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>511900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>671600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,72 +1174,100 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18900</v>
+        <v>-71500</v>
       </c>
       <c r="E20" s="3">
-        <v>10400</v>
+        <v>-111300</v>
       </c>
       <c r="F20" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>751900</v>
+        <v>876200</v>
       </c>
       <c r="E21" s="3">
-        <v>708700</v>
+        <v>1643700</v>
       </c>
       <c r="F21" s="3">
-        <v>741600</v>
+        <v>828800</v>
       </c>
       <c r="G21" s="3">
+        <v>1009900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>779300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>734600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>768700</v>
+      </c>
+      <c r="K21" s="3">
         <v>866900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>685500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>637700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>651100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>828900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>628000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1169,77 +1293,113 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>20700</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>591900</v>
+        <v>646000</v>
       </c>
       <c r="E23" s="3">
-        <v>549600</v>
+        <v>1197800</v>
       </c>
       <c r="F23" s="3">
-        <v>584200</v>
+        <v>607800</v>
       </c>
       <c r="G23" s="3">
+        <v>830500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>613600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>569700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>605600</v>
+      </c>
+      <c r="K23" s="3">
         <v>708200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>536200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>492400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>502100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>657900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>142900</v>
+        <v>150100</v>
       </c>
       <c r="E24" s="3">
-        <v>137900</v>
+        <v>264200</v>
       </c>
       <c r="F24" s="3">
-        <v>152400</v>
+        <v>143300</v>
       </c>
       <c r="G24" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>148100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K24" s="3">
         <v>161000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>122300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>143500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>136900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>158600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>138500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1430,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>449000</v>
+        <v>495900</v>
       </c>
       <c r="E26" s="3">
-        <v>411700</v>
+        <v>933600</v>
       </c>
       <c r="F26" s="3">
-        <v>431800</v>
+        <v>464500</v>
       </c>
       <c r="G26" s="3">
+        <v>630600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>465400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>426700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>447600</v>
+      </c>
+      <c r="K26" s="3">
         <v>547200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>413900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>348900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>365200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>499400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>355500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>449000</v>
+        <v>495900</v>
       </c>
       <c r="E27" s="3">
-        <v>411700</v>
+        <v>933600</v>
       </c>
       <c r="F27" s="3">
-        <v>431800</v>
+        <v>464500</v>
       </c>
       <c r="G27" s="3">
+        <v>630600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>465400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>426700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>447600</v>
+      </c>
+      <c r="K27" s="3">
         <v>547200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>413900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>348900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>365200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>499600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>355400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,13 +1562,25 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1384,22 +1592,34 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>34800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="M29" s="3">
         <v>348200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="N29" s="3">
         <v>3600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>52700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="P29" s="3">
         <v>178200</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1650,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,72 +1694,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18900</v>
+        <v>71500</v>
       </c>
       <c r="E32" s="3">
-        <v>-10400</v>
+        <v>111300</v>
       </c>
       <c r="F32" s="3">
+        <v>53700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>449000</v>
+        <v>495900</v>
       </c>
       <c r="E33" s="3">
-        <v>411700</v>
+        <v>933600</v>
       </c>
       <c r="F33" s="3">
-        <v>431800</v>
+        <v>464500</v>
       </c>
       <c r="G33" s="3">
+        <v>630600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>465400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>426700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>447600</v>
+      </c>
+      <c r="K33" s="3">
         <v>547200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>448800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>697100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>368800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>552200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1826,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>449000</v>
+        <v>495900</v>
       </c>
       <c r="E35" s="3">
-        <v>411700</v>
+        <v>933600</v>
       </c>
       <c r="F35" s="3">
-        <v>431800</v>
+        <v>464500</v>
       </c>
       <c r="G35" s="3">
+        <v>630600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>465400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>426700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>447600</v>
+      </c>
+      <c r="K35" s="3">
         <v>547200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>448800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>697100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>368800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>552200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1945,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,63 +1963,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1709900</v>
+        <v>1102000</v>
       </c>
       <c r="E41" s="3">
-        <v>1564900</v>
+        <v>1426200</v>
       </c>
       <c r="F41" s="3">
-        <v>1755300</v>
+        <v>1582100</v>
       </c>
       <c r="G41" s="3">
+        <v>2081700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1772400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1622000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1819400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1841000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>1367700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>826200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>919400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1485500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>8700</v>
-      </c>
-      <c r="E42" s="3">
-        <v>9200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>8400</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+      <c r="H42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1719,232 +2043,328 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>481200</v>
+        <v>575800</v>
       </c>
       <c r="E43" s="3">
-        <v>446000</v>
+        <v>596000</v>
       </c>
       <c r="F43" s="3">
-        <v>376500</v>
+        <v>607200</v>
       </c>
       <c r="G43" s="3">
+        <v>645200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>498800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>462300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>390300</v>
+      </c>
+      <c r="K43" s="3">
         <v>560400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>393700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>361100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>361800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>715300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>352700</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3139500</v>
+        <v>3678800</v>
       </c>
       <c r="E44" s="3">
-        <v>2975500</v>
+        <v>3233100</v>
       </c>
       <c r="F44" s="3">
-        <v>2816100</v>
+        <v>3164700</v>
       </c>
       <c r="G44" s="3">
+        <v>3395900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3254200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3084200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2919100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3075400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>2976400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>2675600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>2772500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>2849600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>2843300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57200</v>
+        <v>48500</v>
       </c>
       <c r="E45" s="3">
-        <v>64600</v>
+        <v>84200</v>
       </c>
       <c r="F45" s="3">
-        <v>46800</v>
+        <v>64800</v>
       </c>
       <c r="G45" s="3">
+        <v>75400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>59300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K45" s="3">
         <v>50800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>39600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>43600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>649000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>667100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>564600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5396500</v>
+        <v>5405100</v>
       </c>
       <c r="E46" s="3">
-        <v>5060100</v>
+        <v>5339600</v>
       </c>
       <c r="F46" s="3">
-        <v>5003200</v>
+        <v>5418900</v>
       </c>
       <c r="G46" s="3">
+        <v>6198100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5593700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5245000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5186000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5527600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>4777400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>3906500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>4702600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>5523600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>4743100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>108300</v>
+        <v>114300</v>
       </c>
       <c r="E47" s="3">
-        <v>105300</v>
+        <v>120600</v>
       </c>
       <c r="F47" s="3">
-        <v>95500</v>
+        <v>115400</v>
       </c>
       <c r="G47" s="3">
+        <v>119400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>112300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>109100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K47" s="3">
         <v>105900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>79200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>73500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>79900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>99800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7235100</v>
+        <v>9945900</v>
       </c>
       <c r="E48" s="3">
-        <v>7264900</v>
+        <v>9608500</v>
       </c>
       <c r="F48" s="3">
-        <v>7088200</v>
+        <v>9504300</v>
       </c>
       <c r="G48" s="3">
+        <v>7731700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7499400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7530400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7347300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7245000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>6959000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>6874900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>6833900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>7240200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>6997000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1938200</v>
+        <v>2037700</v>
       </c>
       <c r="E49" s="3">
-        <v>2058500</v>
+        <v>1990700</v>
       </c>
       <c r="F49" s="3">
-        <v>1885600</v>
+        <v>1973900</v>
       </c>
       <c r="G49" s="3">
+        <v>1983400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2133700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1954500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2036100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>1886700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>1864000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>1933200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>2195100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>2048200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2395,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,40 +2439,64 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>430400</v>
+        <v>447600</v>
       </c>
       <c r="E52" s="3">
-        <v>342600</v>
+        <v>426700</v>
       </c>
       <c r="F52" s="3">
-        <v>371700</v>
+        <v>407800</v>
       </c>
       <c r="G52" s="3">
+        <v>400300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>446200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>355100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>385300</v>
+      </c>
+      <c r="K52" s="3">
         <v>356000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>291600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>265500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>226800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>249600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>197700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2527,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15108500</v>
+        <v>17950600</v>
       </c>
       <c r="E54" s="3">
-        <v>14831400</v>
+        <v>17486000</v>
       </c>
       <c r="F54" s="3">
-        <v>14444200</v>
+        <v>17420200</v>
       </c>
       <c r="G54" s="3">
+        <v>16433000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>15660600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>15373400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14972000</v>
+      </c>
+      <c r="K54" s="3">
         <v>15270600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>13993900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>12984500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>13776500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>15308300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>14051500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2597,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,200 +2615,276 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3762400</v>
+        <v>4017100</v>
       </c>
       <c r="E57" s="3">
-        <v>3591400</v>
+        <v>3906600</v>
       </c>
       <c r="F57" s="3">
-        <v>3556200</v>
+        <v>3900400</v>
       </c>
       <c r="G57" s="3">
+        <v>4574400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3899900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3722700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3686100</v>
+      </c>
+      <c r="K57" s="3">
         <v>4142700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>3310400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>2747300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>2862000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>3500300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>2801200</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15300</v>
+        <v>162500</v>
       </c>
       <c r="E58" s="3">
-        <v>15200</v>
+        <v>160000</v>
       </c>
       <c r="F58" s="3">
-        <v>16200</v>
+        <v>159400</v>
       </c>
       <c r="G58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K58" s="3">
         <v>19700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>21000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>23100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>26200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>28300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1902400</v>
+        <v>1769000</v>
       </c>
       <c r="E59" s="3">
-        <v>2062100</v>
+        <v>2147500</v>
       </c>
       <c r="F59" s="3">
-        <v>2476600</v>
+        <v>2668300</v>
       </c>
       <c r="G59" s="3">
+        <v>1529500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1971900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2137400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2567100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1414400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>1668500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>1709800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>3197300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>1479700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>1846500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5680100</v>
+        <v>5948600</v>
       </c>
       <c r="E60" s="3">
-        <v>5668800</v>
+        <v>6214100</v>
       </c>
       <c r="F60" s="3">
-        <v>6049000</v>
+        <v>6728200</v>
       </c>
       <c r="G60" s="3">
+        <v>6120400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5887700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5875900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6270000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5576800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>4999800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>4480200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>6085500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>5008300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>4678000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>735600</v>
+        <v>2812700</v>
       </c>
       <c r="E61" s="3">
-        <v>745400</v>
+        <v>2672000</v>
       </c>
       <c r="F61" s="3">
-        <v>725200</v>
+        <v>2618800</v>
       </c>
       <c r="G61" s="3">
+        <v>759500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>762500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>772600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>751700</v>
+      </c>
+      <c r="K61" s="3">
         <v>709900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>694900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>680000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>671600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>694400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>638200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>793100</v>
+        <v>606600</v>
       </c>
       <c r="E62" s="3">
-        <v>714500</v>
+        <v>622100</v>
       </c>
       <c r="F62" s="3">
-        <v>735400</v>
+        <v>617100</v>
       </c>
       <c r="G62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>822100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>740600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>762200</v>
+      </c>
+      <c r="K62" s="3">
         <v>732800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>853400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>886100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>668600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>736500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2915,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2959,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +3003,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7208800</v>
+        <v>9368000</v>
       </c>
       <c r="E66" s="3">
-        <v>7128600</v>
+        <v>9508200</v>
       </c>
       <c r="F66" s="3">
-        <v>7509500</v>
+        <v>9964100</v>
       </c>
       <c r="G66" s="3">
+        <v>7592000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>7472300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>7389100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7783900</v>
+      </c>
+      <c r="K66" s="3">
         <v>7019500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>6548100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>6046300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>7425700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>6439200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>5964300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +3073,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +3109,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +3153,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +3197,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +3241,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4803700</v>
+        <v>5273400</v>
       </c>
       <c r="E72" s="3">
-        <v>4355200</v>
+        <v>4777800</v>
       </c>
       <c r="F72" s="3">
-        <v>3945000</v>
+        <v>4306400</v>
       </c>
       <c r="G72" s="3">
+        <v>5609700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4979300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4514300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4089200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4986500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>4439600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>3991400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>3295400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>5291400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>4740300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +3329,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3373,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3417,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7899700</v>
+        <v>8582600</v>
       </c>
       <c r="E76" s="3">
-        <v>7702700</v>
+        <v>7977900</v>
       </c>
       <c r="F76" s="3">
-        <v>6934700</v>
+        <v>7456100</v>
       </c>
       <c r="G76" s="3">
+        <v>8841000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8188400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7984200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7188100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8251100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>7445700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>6938200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>6350800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>8869100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>8087100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3505,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>449000</v>
+        <v>495900</v>
       </c>
       <c r="E81" s="3">
-        <v>411700</v>
+        <v>933600</v>
       </c>
       <c r="F81" s="3">
-        <v>431800</v>
+        <v>464500</v>
       </c>
       <c r="G81" s="3">
+        <v>630600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>465400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>426700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>447600</v>
+      </c>
+      <c r="K81" s="3">
         <v>547200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>448800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>697100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>368800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>552200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>533600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,40 +3624,56 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159900</v>
+        <v>230100</v>
       </c>
       <c r="E83" s="3">
-        <v>159100</v>
+        <v>445900</v>
       </c>
       <c r="F83" s="3">
-        <v>157400</v>
+        <v>221000</v>
       </c>
       <c r="G83" s="3">
+        <v>179400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>165800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>164900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>163200</v>
+      </c>
+      <c r="K83" s="3">
         <v>158700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>149300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>145300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>149000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>150200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>134000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3704,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3748,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3792,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3836,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,40 +3880,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>717400</v>
+        <v>662000</v>
       </c>
       <c r="E89" s="3">
-        <v>276900</v>
+        <v>873500</v>
       </c>
       <c r="F89" s="3">
-        <v>198300</v>
+        <v>148600</v>
       </c>
       <c r="G89" s="3">
+        <v>1312100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>743600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>205600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1218100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>895800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>588900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-164100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>1324000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>414400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,40 +3950,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270700</v>
+        <v>-361300</v>
       </c>
       <c r="E91" s="3">
-        <v>-190500</v>
+        <v>-411500</v>
       </c>
       <c r="F91" s="3">
-        <v>-95600</v>
+        <v>-171200</v>
       </c>
       <c r="G91" s="3">
+        <v>-384300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-280600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-197400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-348500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-230500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-197600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-124700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-1019300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-242200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +4030,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,40 +4074,64 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-236900</v>
+        <v>-342300</v>
       </c>
       <c r="E94" s="3">
-        <v>-135400</v>
+        <v>-405500</v>
       </c>
       <c r="F94" s="3">
-        <v>-86000</v>
+        <v>-218400</v>
       </c>
       <c r="G94" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-245600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-314300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-171700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>866900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-178000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-247400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-218600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,40 +4144,56 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-259300</v>
+        <v>-537600</v>
       </c>
       <c r="E96" s="3">
-        <v>-348300</v>
+        <v>-889400</v>
       </c>
       <c r="F96" s="3">
-        <v>-142900</v>
+        <v>-305900</v>
       </c>
       <c r="G96" s="3">
+        <v>-593400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-268800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-361100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-148100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-473200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-142700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-1470600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-124800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-568100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-128200</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +4224,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +4268,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,100 +4312,148 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-279000</v>
+        <v>-646700</v>
       </c>
       <c r="E100" s="3">
-        <v>-368200</v>
+        <v>-1100900</v>
       </c>
       <c r="F100" s="3">
-        <v>-164000</v>
+        <v>-407800</v>
       </c>
       <c r="G100" s="3">
+        <v>-614100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-289100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-381700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-494500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-167100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-1487600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-145400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-591300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-56400</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
-        <v>36300</v>
+        <v>-22500</v>
       </c>
       <c r="F101" s="3">
-        <v>-34100</v>
+        <v>-22000</v>
       </c>
       <c r="G101" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K101" s="3">
         <v>29600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-15600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-26900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-39900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>29200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>145100</v>
+        <v>-324200</v>
       </c>
       <c r="E102" s="3">
-        <v>-190400</v>
+        <v>-655400</v>
       </c>
       <c r="F102" s="3">
-        <v>-85700</v>
+        <v>-499500</v>
       </c>
       <c r="G102" s="3">
+        <v>309200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>150400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-197400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="K102" s="3">
         <v>473300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>541400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-93200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-527500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>503000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>39200</v>
       </c>
     </row>
